--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/AR0143.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc so do tuyen/AR0143.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>DivisionName</t>
   </si>
   <si>
-    <t>84 Tậy Thạnh, Quận Tân Phú, Tp.HCM</t>
-  </si>
-  <si>
     <t>ĐT…………..</t>
   </si>
   <si>
@@ -177,7 +174,10 @@
     <t>Ngày ………..tháng……..năm…………..</t>
   </si>
   <si>
-    <t>Công ty Hoàng Trần</t>
+    <t>Công ty: Hoàng Trần</t>
+  </si>
+  <si>
+    <t>Địa chỉ : ………</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1246,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1266,11 +1266,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>4</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1332,11 +1332,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -1348,11 +1348,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -1364,11 +1364,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -1380,19 +1380,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -1408,11 +1408,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1424,13 +1424,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -1442,11 +1442,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -1458,13 +1458,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="34"/>
     </row>
